--- a/SocScrapeContent/sheets/jordan.xlsx
+++ b/SocScrapeContent/sheets/jordan.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clubs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Athletics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,16 +38,52 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff8888"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ff88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008888ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff88ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff88"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +270,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="00666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -249,6 +317,21 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -546,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,7 +1560,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>IB</t>
+          <t>IB World School (International Baccalaureate)</t>
         </is>
       </c>
       <c r="B51" s="2" t="n"/>
@@ -1517,50 +1600,50 @@
     <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
-          <t>English 1-2 or 1-2 Acc</t>
+          <t>US Government/Economics</t>
         </is>
       </c>
       <c r="B53" s="7" t="inlineStr">
         <is>
-          <t>English 3-4 or 3-4 Acc</t>
+          <t>Modern World History Acc., or AP World History Acc.</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>English IB Higher Level 1</t>
+          <t>AP US History</t>
         </is>
       </c>
       <c r="D53" s="7" t="inlineStr">
         <is>
-          <t>English IB Higher Level 2</t>
+          <t>IB History of Americas HL2</t>
         </is>
       </c>
       <c r="E53" s="5" t="n"/>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>International Baccalaureate is a college-prep program that is recognized worldwide as providing a high-quality integrated curriculum that encourages not only high achievement, but balance, ethics and community engagement. IB students take challenging classes with other highly-motivated students and have the option to pursue the IB Diploma and NAFTrack Certification. Students have the ability to gain college credit, and in the last three years, three students have entered college as sophomores (UC Berkeley, UC Irvine and CSU Dominguez Hills). Students who attain NAFTrack Certification in Business and Finance can take advantage of guaranteed interviews, preferential hiring for internships, and paid positions at some of the largest companies in the USA (AT&amp;T, Verizon, Lenovo, Xerox, JP Morgan Chase, and others).</t>
+          <t>The IB Pathway provides a world-class college prep curriculum that prepares students for any college/university. The program is designed for highly-motivated GATE/Accelerated students. The International Baccalaureate aims to develop inquiring, knowledgeable and caring young people who help to create a better and more peaceful world through intercultural understanding and respect.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="inlineStr">
         <is>
-          <t>Algebra or Geometry Acc</t>
+          <t>Accelerated (Acc.) Geometry, Geometry, or Algebra 1</t>
         </is>
       </c>
       <c r="B54" s="7" t="inlineStr">
         <is>
-          <t>Geometry or Algebra 2 Acc</t>
+          <t>English 3-4</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2 or Pre-Calculus</t>
+          <t>IB English HL1</t>
         </is>
       </c>
       <c r="D54" s="7" t="inlineStr">
         <is>
-          <t>Math IB</t>
+          <t>IB English HL2</t>
         </is>
       </c>
       <c r="E54" s="5" t="n"/>
@@ -1569,22 +1652,22 @@
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>Acc. English 1-2</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr">
         <is>
-          <t>Chemistry</t>
+          <t>Geometry or Algebra 2 Acc.</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Biology or Chemistry IB Higher Level 1</t>
+          <t>Algebra 2 Acc., Pre-Calculus, or AP Calculus</t>
         </is>
       </c>
       <c r="D55" s="7" t="inlineStr">
         <is>
-          <t>Biology or Chemistry IB Higher Level 2</t>
+          <t>IB Math: Analysis &amp; App. or App. &amp; Interpretations SL</t>
         </is>
       </c>
       <c r="E55" s="5" t="n"/>
@@ -1593,22 +1676,22 @@
     <row r="56">
       <c r="A56" s="7" t="inlineStr">
         <is>
-          <t>US Government/Economics</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="B56" s="7" t="inlineStr">
         <is>
-          <t>Modern World or AP Modern World</t>
+          <t>Chemistry 1-2 Honors</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>US History or AP US History</t>
+          <t>IB Biology HL1 or Chemistry HL1</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t>History of the Americas IB or Theory of Knowledge IB</t>
+          <t>IB Biology HL2 or Chemistry HL2</t>
         </is>
       </c>
       <c r="E56" s="5" t="n"/>
@@ -1617,22 +1700,22 @@
     <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
-          <t>PE or Sport</t>
+          <t>Spanish 1-2, 3-4, or SSS 1-2</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr">
         <is>
-          <t>PE or Sport</t>
+          <t>Spanish 3-4 or SSS 3-4</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Spanish 5-6 or AP Spanish Literature</t>
         </is>
       </c>
       <c r="D57" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>IB Spanish SL or HL</t>
         </is>
       </c>
       <c r="E57" s="5" t="n"/>
@@ -1641,22 +1724,22 @@
     <row r="58">
       <c r="A58" s="7" t="inlineStr">
         <is>
-          <t>Business, Travel and Tourism</t>
+          <t>Drawing &amp; Painting or Theater Arts (Sem.)</t>
         </is>
       </c>
       <c r="B58" s="7" t="inlineStr">
         <is>
-          <t>Ethics in Business and Entrepreneurship</t>
+          <t>Ethics in Bus. &amp; Entrepreneurship (NAF)</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>IB Visual Arts SL</t>
         </is>
       </c>
       <c r="D58" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Theory of Knowledge (DP candidates only) or Sports &amp; Entertainment Marketing (NAF for non DP candidates)</t>
         </is>
       </c>
       <c r="E58" s="5" t="n"/>
@@ -1665,17 +1748,17 @@
     <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
-          <t>Spanish 1-2</t>
+          <t>Bus, Travel, Tourism and Hospitality (NAF)</t>
         </is>
       </c>
       <c r="B59" s="7" t="inlineStr">
         <is>
-          <t>Spanish 3-4</t>
+          <t>PE or Sports</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Theory of Knowledge (DP candidates only)</t>
         </is>
       </c>
       <c r="D59" s="7" t="inlineStr">
@@ -1687,7 +1770,11 @@
       <c r="F59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="n"/>
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sports</t>
+        </is>
+      </c>
       <c r="B60" s="5" t="n"/>
       <c r="C60" s="5" t="n"/>
       <c r="D60" s="5" t="n"/>
@@ -1741,7 +1828,7 @@
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
-          <t>Spanish 5-6</t>
+          <t>Intro to Theater Arts</t>
         </is>
       </c>
       <c r="B65" s="5" t="n"/>
@@ -1759,11 +1846,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="inlineStr">
-        <is>
-          <t>AP Spanish Language or Literature</t>
-        </is>
-      </c>
+      <c r="A66" s="5" t="n"/>
       <c r="B66" s="5" t="n"/>
       <c r="C66" s="5" t="n"/>
       <c r="D66" s="5" t="n"/>
@@ -1776,11 +1859,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="inlineStr">
-        <is>
-          <t>Spanish IB Standard Level</t>
-        </is>
-      </c>
+      <c r="A67" s="5" t="n"/>
       <c r="B67" s="5" t="n"/>
       <c r="C67" s="4" t="inlineStr">
         <is>
@@ -1796,11 +1875,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7" t="inlineStr">
-        <is>
-          <t>Spanish IB Higher Level 2</t>
-        </is>
-      </c>
+      <c r="A68" s="5" t="n"/>
       <c r="B68" s="5" t="n"/>
       <c r="C68" s="5" t="n"/>
       <c r="D68" s="5" t="n"/>
@@ -1813,28 +1888,15 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="inlineStr">
-        <is>
-          <t>Drawing and Painting</t>
-        </is>
-      </c>
+      <c r="A69" s="5" t="n"/>
       <c r="B69" s="5" t="n"/>
       <c r="C69" s="5" t="n"/>
       <c r="D69" s="5" t="n"/>
       <c r="E69" s="5" t="n"/>
-      <c r="F69" s="8" t="inlineStr">
-        <is>
-          <t>"NAF's slogan is ‘Be Future Ready.’ I feel the skills learned in IB/NAF will make students ready not just for the jobs of today, but also for the jobs of the future." 
- - Patricia Hinkson, CTE teacher</t>
-        </is>
-      </c>
+      <c r="F69" s="9" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="inlineStr">
-        <is>
-          <t>Intro to Theater Arts</t>
-        </is>
-      </c>
+      <c r="A70" s="5" t="n"/>
       <c r="B70" s="5" t="n"/>
       <c r="C70" s="5" t="n"/>
       <c r="D70" s="5" t="n"/>
@@ -1842,11 +1904,7 @@
       <c r="F70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="7" t="inlineStr">
-        <is>
-          <t>Visual Arts IB Standard Level</t>
-        </is>
-      </c>
+      <c r="A71" s="5" t="n"/>
       <c r="B71" s="5" t="n"/>
       <c r="C71" s="5" t="n"/>
       <c r="D71" s="5" t="n"/>
@@ -1854,11 +1912,7 @@
       <c r="F71" s="9" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="inlineStr">
-        <is>
-          <t>Dance, Band, Orchestra, Concert Choir</t>
-        </is>
-      </c>
+      <c r="A72" s="5" t="n"/>
       <c r="B72" s="5" t="n"/>
       <c r="C72" s="5" t="n"/>
       <c r="D72" s="5" t="n"/>
@@ -2745,14 +2799,1520 @@
       <c r="E125" s="10" t="n"/>
       <c r="F125" s="11" t="n"/>
     </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>NAF</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n"/>
+      <c r="C126" s="2" t="n"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="3" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>Grade 9</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>Grade 10</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="E127" s="5" t="n"/>
+      <c r="F127" s="6" t="inlineStr">
+        <is>
+          <t>Program Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="inlineStr">
+        <is>
+          <t>English 1-2</t>
+        </is>
+      </c>
+      <c r="B128" s="7" t="inlineStr">
+        <is>
+          <t>Modern World History or AP World History</t>
+        </is>
+      </c>
+      <c r="C128" s="7" t="inlineStr">
+        <is>
+          <t>US History</t>
+        </is>
+      </c>
+      <c r="D128" s="7" t="inlineStr">
+        <is>
+          <t>US Government (Sem) &amp; Economics (Sem)</t>
+        </is>
+      </c>
+      <c r="E128" s="5" t="n"/>
+      <c r="F128" s="8" t="inlineStr">
+        <is>
+          <t>NAF academies are structured as small, focused learning communities that fit within and enhance high school systems, allowing NAF to become an integral part of a plan for higher achievement. NAF provides a rigorous, industry-validated career-themed curriculum that incorporates current industry standards and practices and literacy strategies. NAF’s instructional practices foster cross-curriculum collaboration so students can make connections across subject areas. Students acquire valuable workplace skills and see their education as a step toward long-term career options. NAF students are required to complete 3 NAF certified CTE courses, and a paid internship of 120 hours along with an assessment at the end of their Senior year in order to receive a NAF Certification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="inlineStr">
+        <is>
+          <t>Algebra 1 or Geometry</t>
+        </is>
+      </c>
+      <c r="B129" s="7" t="inlineStr">
+        <is>
+          <t>English 3-4</t>
+        </is>
+      </c>
+      <c r="C129" s="7" t="inlineStr">
+        <is>
+          <t>English 5-6</t>
+        </is>
+      </c>
+      <c r="D129" s="7" t="inlineStr">
+        <is>
+          <t>CSU English, Reading, Writing, and Composition (ERWC), AP English Language, or AP English Literature</t>
+        </is>
+      </c>
+      <c r="E129" s="5" t="n"/>
+      <c r="F129" s="9" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="B130" s="7" t="inlineStr">
+        <is>
+          <t>Algebra 2, Algebra 2 Accelerated (Acc.), or Geometry</t>
+        </is>
+      </c>
+      <c r="C130" s="7" t="inlineStr">
+        <is>
+          <t>Algebra 2, Algebra 2 Acc., Pre-Calc, AP Statistics, or Finite</t>
+        </is>
+      </c>
+      <c r="D130" s="7" t="inlineStr">
+        <is>
+          <t>Intro to Data Science, AP Statistics, AP Calculus, Pre-Calculus, or IB Math</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="n"/>
+      <c r="F130" s="9" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="inlineStr">
+        <is>
+          <t>Spanish 1-2 or SSS 1-2</t>
+        </is>
+      </c>
+      <c r="B131" s="7" t="inlineStr">
+        <is>
+          <t>Chemistry</t>
+        </is>
+      </c>
+      <c r="C131" s="7" t="inlineStr">
+        <is>
+          <t>Ethics in Business &amp; Entrepreneurship (NAF CTE)</t>
+        </is>
+      </c>
+      <c r="D131" s="7" t="inlineStr">
+        <is>
+          <t>Sports &amp; Entertainment Marketing (NAF CTE)</t>
+        </is>
+      </c>
+      <c r="E131" s="5" t="n"/>
+      <c r="F131" s="9" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="inlineStr">
+        <is>
+          <t>Drawing &amp; Paining or Theater Arts (Sem)</t>
+        </is>
+      </c>
+      <c r="B132" s="7" t="inlineStr">
+        <is>
+          <t>Spanish 3-4 or SSS 3-4</t>
+        </is>
+      </c>
+      <c r="C132" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sports</t>
+        </is>
+      </c>
+      <c r="D132" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sports</t>
+        </is>
+      </c>
+      <c r="E132" s="5" t="n"/>
+      <c r="F132" s="9" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="inlineStr">
+        <is>
+          <t>Bus, Travel, Tourism &amp; Hospitality (NAF CTE)</t>
+        </is>
+      </c>
+      <c r="B133" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sports</t>
+        </is>
+      </c>
+      <c r="C133" s="7" t="inlineStr">
+        <is>
+          <t>Science Elective</t>
+        </is>
+      </c>
+      <c r="D133" s="7" t="inlineStr">
+        <is>
+          <t>Science Elective</t>
+        </is>
+      </c>
+      <c r="E133" s="5" t="n"/>
+      <c r="F133" s="9" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sports</t>
+        </is>
+      </c>
+      <c r="B134" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="C134" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="E134" s="5" t="n"/>
+      <c r="F134" s="9" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="n"/>
+      <c r="B135" s="5" t="n"/>
+      <c r="C135" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D135" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="n"/>
+      <c r="F135" s="9" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="n"/>
+      <c r="B136" s="5" t="n"/>
+      <c r="C136" s="5" t="n"/>
+      <c r="D136" s="5" t="n"/>
+      <c r="E136" s="5" t="n"/>
+      <c r="F136" s="9" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="5" t="n"/>
+      <c r="B137" s="5" t="n"/>
+      <c r="C137" s="5" t="n"/>
+      <c r="D137" s="5" t="n"/>
+      <c r="E137" s="5" t="n"/>
+      <c r="F137" s="9" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="5" t="n"/>
+      <c r="B138" s="5" t="n"/>
+      <c r="C138" s="5" t="n"/>
+      <c r="D138" s="5" t="n"/>
+      <c r="E138" s="5" t="n"/>
+      <c r="F138" s="9" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="inlineStr">
+        <is>
+          <t>Popular Elective Options</t>
+        </is>
+      </c>
+      <c r="B139" s="5" t="n"/>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Link to 1-2 Minute Video</t>
+        </is>
+      </c>
+      <c r="D139" s="5" t="n"/>
+      <c r="E139" s="5" t="n"/>
+      <c r="F139" s="6" t="inlineStr">
+        <is>
+          <t>Two Student Quotes</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="inlineStr">
+        <is>
+          <t>Cheer</t>
+        </is>
+      </c>
+      <c r="B140" s="4" t="inlineStr">
+        <is>
+          <t>Dance, Band, Orchestra, Concert Choir, Piano &amp; Guitar</t>
+        </is>
+      </c>
+      <c r="C140" s="7">
+        <f>HYPERLINK("https://cdn.schoolloop.com/uimgcdn/aHR0cHM6Ly9qb3JkYW4tc29jLWxidXNkLWNhLnNjaG9vbGxvb3AuY29tL3VpbWcvZmlsZS8xNTUyNjM4Nzg4NTIwLzE1NzU3MDMxNDAwMTYvNTkwOTM1NTI4NTAwNjA2NjQ4OS5tcDQ=")</f>
+        <v/>
+      </c>
+      <c r="D140" s="5" t="n"/>
+      <c r="E140" s="5" t="n"/>
+      <c r="F140" s="8" t="inlineStr">
+        <is>
+          <t>There are no student quotes to be displayed at this time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="inlineStr">
+        <is>
+          <t>Ceramics</t>
+        </is>
+      </c>
+      <c r="B141" s="5" t="n"/>
+      <c r="C141" s="5" t="n"/>
+      <c r="D141" s="5" t="n"/>
+      <c r="E141" s="5" t="n"/>
+      <c r="F141" s="9" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="inlineStr">
+        <is>
+          <t>AP Spanish</t>
+        </is>
+      </c>
+      <c r="B142" s="5" t="n"/>
+      <c r="C142" s="4" t="inlineStr">
+        <is>
+          <t>Entrance Criteria</t>
+        </is>
+      </c>
+      <c r="D142" s="5" t="n"/>
+      <c r="E142" s="5" t="n"/>
+      <c r="F142" s="6" t="inlineStr">
+        <is>
+          <t>Two Staff Quotes</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="inlineStr">
+        <is>
+          <t>Spanish 5-6</t>
+        </is>
+      </c>
+      <c r="B143" s="5" t="n"/>
+      <c r="C143" s="5" t="n"/>
+      <c r="D143" s="5" t="n"/>
+      <c r="E143" s="5" t="n"/>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>"Students that take CTE classes, participate in work-based learning and the connection between their CTE curriculum and real-world experiences." 
+ - Ms.Townsend, CTE teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="inlineStr">
+        <is>
+          <t>Marine Biology</t>
+        </is>
+      </c>
+      <c r="B144" s="5" t="n"/>
+      <c r="C144" s="5" t="n"/>
+      <c r="D144" s="5" t="n"/>
+      <c r="E144" s="5" t="n"/>
+      <c r="F144" s="8" t="inlineStr">
+        <is>
+          <t>"NAF's slogan is ‘Be Future Ready.’ I feel the skills learned in IB/NAF will make students ready not just for the jobs of today, but also for the jobs of the future." 
+ - Patricia Hinkson, CTE teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="inlineStr">
+        <is>
+          <t>Forensic Science</t>
+        </is>
+      </c>
+      <c r="B145" s="5" t="n"/>
+      <c r="C145" s="5" t="n"/>
+      <c r="D145" s="5" t="n"/>
+      <c r="E145" s="5" t="n"/>
+      <c r="F145" s="9" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="inlineStr">
+        <is>
+          <t>Drawing &amp; Painting</t>
+        </is>
+      </c>
+      <c r="B146" s="5" t="n"/>
+      <c r="C146" s="5" t="n"/>
+      <c r="D146" s="5" t="n"/>
+      <c r="E146" s="5" t="n"/>
+      <c r="F146" s="9" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="inlineStr">
+        <is>
+          <t>Intro to Theater Arts</t>
+        </is>
+      </c>
+      <c r="B147" s="5" t="n"/>
+      <c r="C147" s="5" t="n"/>
+      <c r="D147" s="5" t="n"/>
+      <c r="E147" s="5" t="n"/>
+      <c r="F147" s="9" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="inlineStr">
+        <is>
+          <t>Psychology &amp; Sociology</t>
+        </is>
+      </c>
+      <c r="B148" s="5" t="n"/>
+      <c r="C148" s="5" t="n"/>
+      <c r="D148" s="5" t="n"/>
+      <c r="E148" s="5" t="n"/>
+      <c r="F148" s="9" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="inlineStr">
+        <is>
+          <t>Graphic Design &amp; Print Making</t>
+        </is>
+      </c>
+      <c r="B149" s="5" t="n"/>
+      <c r="C149" s="5" t="n"/>
+      <c r="D149" s="5" t="n"/>
+      <c r="E149" s="5" t="n"/>
+      <c r="F149" s="9" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="10" t="n"/>
+      <c r="B150" s="10" t="n"/>
+      <c r="C150" s="10" t="n"/>
+      <c r="D150" s="10" t="n"/>
+      <c r="E150" s="10" t="n"/>
+      <c r="F150" s="11" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A126:F126"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Club Name</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Prominent club? (Choose up to 6 clubs to be placed in a Top Clubs category at the top of the clubs page)</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Description (1-2 sentences) for top clubs</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Category (Arts, Cultural, Volunteering &amp; Advocacy, Social, STEM, or Other)</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Field Trips</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Scholarships</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Volunteer Opportunities</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="inlineStr">
+        <is>
+          <t>Does the club participate in competitions?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>DIY Club</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="inlineStr"/>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="inlineStr">
+        <is>
+          <t>JMAC Club</t>
+        </is>
+      </c>
+      <c r="B3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="inlineStr"/>
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="inlineStr">
+        <is>
+          <t>Musical Arts Club</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>Yearbook Club</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="inlineStr"/>
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>German Club</t>
+        </is>
+      </c>
+      <c r="B6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="inlineStr"/>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="inlineStr">
+        <is>
+          <t>Best Buddies</t>
+        </is>
+      </c>
+      <c r="B7" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="inlineStr">
+        <is>
+          <t>Best Buddies is a group for all students to participate and build friendships and participate in various activities with students with special needs.</t>
+        </is>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="inlineStr">
+        <is>
+          <t>Black Student Union Club</t>
+        </is>
+      </c>
+      <c r="B8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18" t="inlineStr"/>
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="inlineStr">
+        <is>
+          <t>Green Earth Club</t>
+        </is>
+      </c>
+      <c r="B9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="inlineStr"/>
+      <c r="D9" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="18" t="inlineStr">
+        <is>
+          <t>Key Club</t>
+        </is>
+      </c>
+      <c r="B10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18" t="inlineStr"/>
+      <c r="D10" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="inlineStr">
+        <is>
+          <t>Latin American Student Society</t>
+        </is>
+      </c>
+      <c r="B11" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
+        <is>
+          <t>Latin American Student society is a prominent club on campus. Diverse students participate in learning about Latin American dance, culture and food and volunteer and perform at campus and community events.</t>
+        </is>
+      </c>
+      <c r="D11" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="inlineStr">
+        <is>
+          <t>Leap Club</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="inlineStr"/>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="18" t="inlineStr">
+        <is>
+          <t>PRIDE Club (Gay Straight Alliance)</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18" t="inlineStr"/>
+      <c r="D13" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="inlineStr">
+        <is>
+          <t>Band Club</t>
+        </is>
+      </c>
+      <c r="B14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20" t="inlineStr"/>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="inlineStr">
+        <is>
+          <t>Jordan Jedis</t>
+        </is>
+      </c>
+      <c r="B15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="20" t="inlineStr"/>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="inlineStr">
+        <is>
+          <t>JTown InstaGlam</t>
+        </is>
+      </c>
+      <c r="B16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20" t="inlineStr"/>
+      <c r="D16" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="20" t="inlineStr">
+        <is>
+          <t>Link Crew</t>
+        </is>
+      </c>
+      <c r="B17" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>Link Crew Club is a club for upperclassmen who are leaders to provide incoming freshmen with orientation days, a mentor and connection to Jordans campus. They do summer orientation and support additional activities throughout the school year.</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="20" t="inlineStr">
+        <is>
+          <t>Walking Dead Fan Club</t>
+        </is>
+      </c>
+      <c r="B18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="20" t="inlineStr"/>
+      <c r="D18" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="20" t="inlineStr">
+        <is>
+          <t>Wellness Club</t>
+        </is>
+      </c>
+      <c r="B19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="20" t="inlineStr"/>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="22" t="inlineStr">
+        <is>
+          <t>AIMS Club</t>
+        </is>
+      </c>
+      <c r="B20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22" t="inlineStr"/>
+      <c r="D20" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="inlineStr">
+        <is>
+          <t>Health Occupation Students of America</t>
+        </is>
+      </c>
+      <c r="B21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22" t="inlineStr"/>
+      <c r="D21" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="inlineStr">
+        <is>
+          <t>Math Club</t>
+        </is>
+      </c>
+      <c r="B22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22" t="inlineStr"/>
+      <c r="D22" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="22" t="inlineStr">
+        <is>
+          <t>Mesa Club</t>
+        </is>
+      </c>
+      <c r="B23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="22" t="inlineStr"/>
+      <c r="D23" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="inlineStr">
+        <is>
+          <t>AP Club</t>
+        </is>
+      </c>
+      <c r="B24" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24" t="inlineStr"/>
+      <c r="D24" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E24" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="inlineStr">
+        <is>
+          <t>Boys Aquatics Club</t>
+        </is>
+      </c>
+      <c r="B25" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="24" t="inlineStr"/>
+      <c r="D25" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E25" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="inlineStr">
+        <is>
+          <t>ETA Club</t>
+        </is>
+      </c>
+      <c r="B26" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="24" t="inlineStr"/>
+      <c r="D26" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E26" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="inlineStr">
+        <is>
+          <t>Future Teachers Club</t>
+        </is>
+      </c>
+      <c r="B27" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="24" t="inlineStr"/>
+      <c r="D27" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E27" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="inlineStr">
+        <is>
+          <t>Girls Aquatics Club</t>
+        </is>
+      </c>
+      <c r="B28" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="inlineStr"/>
+      <c r="D28" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E28" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="inlineStr">
+        <is>
+          <t>IB Junior Club</t>
+        </is>
+      </c>
+      <c r="B29" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="24" t="inlineStr"/>
+      <c r="D29" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E29" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="24" t="inlineStr">
+        <is>
+          <t>IB Senior Club</t>
+        </is>
+      </c>
+      <c r="B30" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="24" t="inlineStr"/>
+      <c r="D30" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E30" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="24" t="inlineStr">
+        <is>
+          <t>J-Town Running Club</t>
+        </is>
+      </c>
+      <c r="B31" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="24" t="inlineStr"/>
+      <c r="D31" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E31" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="24" t="inlineStr">
+        <is>
+          <t>Jordan Softball Club</t>
+        </is>
+      </c>
+      <c r="B32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="24" t="inlineStr"/>
+      <c r="D32" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="inlineStr">
+        <is>
+          <t>Peace 90805</t>
+        </is>
+      </c>
+      <c r="B33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="24" t="inlineStr"/>
+      <c r="D33" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="inlineStr">
+        <is>
+          <t>Wrestling Club</t>
+        </is>
+      </c>
+      <c r="B34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="24" t="inlineStr"/>
+      <c r="D34" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="24" t="inlineStr">
+        <is>
+          <t>23 Seeds of Greatness</t>
+        </is>
+      </c>
+      <c r="B35" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24" t="inlineStr">
+        <is>
+          <t>23 Seeds of Greatness is the club and support for Xi Sisters and Omega Brothers who is a student support, social and volunteer club on campus Students are supported with school work, but also have opportunities to learn skills and then volunteer at various school and community events.</t>
+        </is>
+      </c>
+      <c r="D35" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>Gender (Boys, Girls, Coed)</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>CIF -- years gone to playoffs (since 2000)</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>Moore League -- years won (since 2000)</t>
+        </is>
+      </c>
+      <c r="E1" s="26" t="inlineStr">
+        <is>
+          <t>Other tournaments/awards</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>